--- a/static/download/summary.xlsx
+++ b/static/download/summary.xlsx
@@ -376,7 +376,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr codeName="sheet1"/>
-  <dimension ref="A1:X10"/>
+  <dimension ref="A1:X7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -457,19 +457,19 @@
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v>李文丽</v>
+        <v>辛士民</v>
       </c>
       <c r="B2" t="str">
-        <v>613722</v>
+        <v>622603</v>
       </c>
       <c r="C2" t="str">
-        <v>500.00</v>
+        <v>1178.00</v>
       </c>
       <c r="D2" t="str">
-        <v>500.00</v>
+        <v>1178.00</v>
       </c>
       <c r="E2" t="str">
-        <v>400.00</v>
+        <v>942.40</v>
       </c>
       <c r="F2" t="str">
         <v>0.00</v>
@@ -477,11 +477,11 @@
       <c r="G2" t="str">
         <v>0.00</v>
       </c>
-      <c r="H2" t="str">
-        <v>400.00</v>
-      </c>
-      <c r="I2">
-        <v>0</v>
+      <c r="H2">
+        <v>942.4</v>
+      </c>
+      <c r="I2" t="str">
+        <v>0.00</v>
       </c>
       <c r="J2" t="str">
         <v>0.00</v>
@@ -493,7 +493,7 @@
         <v>0.00</v>
       </c>
       <c r="M2" t="str">
-        <v>100.00</v>
+        <v>235.60</v>
       </c>
       <c r="N2" t="str">
         <v>0.00</v>
@@ -505,33 +505,39 @@
         <v/>
       </c>
       <c r="Q2" t="str">
-        <v>2018-01-29 14:54:20</v>
+        <v>2018-02-05 18:22:21</v>
       </c>
       <c r="R2" t="str">
-        <v>陈燕</v>
+        <v>徐子莹</v>
       </c>
       <c r="S2" t="str">
         <v>黄伟波</v>
       </c>
       <c r="T2" t="str">
-        <v/>
+        <v>否</v>
+      </c>
+      <c r="U2" t="str">
+        <v>无</v>
+      </c>
+      <c r="V2" t="str">
+        <v>无</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="str">
-        <v>刘淼海</v>
+        <v>黄辉强</v>
       </c>
       <c r="B3" t="str">
-        <v>613728</v>
+        <v>622761</v>
       </c>
       <c r="C3" t="str">
-        <v>140.00</v>
+        <v>850.00</v>
       </c>
       <c r="D3" t="str">
-        <v>140.00</v>
+        <v>850.00</v>
       </c>
       <c r="E3" t="str">
-        <v>112.00</v>
+        <v>765.00</v>
       </c>
       <c r="F3" t="str">
         <v>0.00</v>
@@ -539,11 +545,11 @@
       <c r="G3" t="str">
         <v>0.00</v>
       </c>
-      <c r="H3" t="str">
-        <v>112.00</v>
-      </c>
-      <c r="I3">
-        <v>0</v>
+      <c r="H3">
+        <v>765</v>
+      </c>
+      <c r="I3" t="str">
+        <v>0.00</v>
       </c>
       <c r="J3" t="str">
         <v>0.00</v>
@@ -555,45 +561,51 @@
         <v>0.00</v>
       </c>
       <c r="M3" t="str">
-        <v>28.00</v>
+        <v>0.00</v>
       </c>
       <c r="N3" t="str">
         <v>0.00</v>
       </c>
       <c r="O3" t="str">
-        <v>0.00</v>
+        <v>85.00</v>
       </c>
       <c r="P3" t="str">
         <v/>
       </c>
       <c r="Q3" t="str">
-        <v>2018-01-29 15:17:33</v>
+        <v>2018-02-05 18:22:58</v>
       </c>
       <c r="R3" t="str">
-        <v>陈燕</v>
+        <v>徐子莹</v>
       </c>
       <c r="S3" t="str">
         <v>黄伟波</v>
       </c>
       <c r="T3" t="str">
-        <v/>
+        <v>否</v>
+      </c>
+      <c r="U3" t="str">
+        <v>无</v>
+      </c>
+      <c r="V3" t="str">
+        <v>无</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="str">
-        <v>钟志强</v>
+        <v>邱永刚</v>
       </c>
       <c r="B4" t="str">
-        <v>613768</v>
+        <v>622853</v>
       </c>
       <c r="C4" t="str">
-        <v>44.50</v>
+        <v>380.00</v>
       </c>
       <c r="D4" t="str">
-        <v>44.50</v>
+        <v>380.00</v>
       </c>
       <c r="E4" t="str">
-        <v>23.20</v>
+        <v>304.00</v>
       </c>
       <c r="F4" t="str">
         <v>0.00</v>
@@ -601,11 +613,11 @@
       <c r="G4" t="str">
         <v>0.00</v>
       </c>
-      <c r="H4" t="str">
-        <v>23.20</v>
-      </c>
-      <c r="I4">
-        <v>0</v>
+      <c r="H4">
+        <v>304</v>
+      </c>
+      <c r="I4" t="str">
+        <v>0.00</v>
       </c>
       <c r="J4" t="str">
         <v>0.00</v>
@@ -617,7 +629,7 @@
         <v>0.00</v>
       </c>
       <c r="M4" t="str">
-        <v>21.30</v>
+        <v>76.00</v>
       </c>
       <c r="N4" t="str">
         <v>0.00</v>
@@ -629,33 +641,39 @@
         <v/>
       </c>
       <c r="Q4" t="str">
-        <v>2018-01-29 15:22:19</v>
+        <v>2018-02-05 18:23:23</v>
       </c>
       <c r="R4" t="str">
-        <v>陈燕</v>
+        <v>徐子莹</v>
       </c>
       <c r="S4" t="str">
         <v>黄伟波</v>
       </c>
       <c r="T4" t="str">
-        <v/>
+        <v>否</v>
+      </c>
+      <c r="U4" t="str">
+        <v>无</v>
+      </c>
+      <c r="V4" t="str">
+        <v>无</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="str">
-        <v>王红燕</v>
+        <v>王汝彬</v>
       </c>
       <c r="B5" t="str">
-        <v>613800</v>
+        <v>622605</v>
       </c>
       <c r="C5" t="str">
-        <v>134.00</v>
+        <v>258.00</v>
       </c>
       <c r="D5" t="str">
-        <v>134.00</v>
+        <v>258.00</v>
       </c>
       <c r="E5" t="str">
-        <v>107.20</v>
+        <v>206.40</v>
       </c>
       <c r="F5" t="str">
         <v>0.00</v>
@@ -663,11 +681,11 @@
       <c r="G5" t="str">
         <v>0.00</v>
       </c>
-      <c r="H5" t="str">
-        <v>0.00</v>
-      </c>
-      <c r="I5">
-        <v>107.2</v>
+      <c r="H5">
+        <v>206.4</v>
+      </c>
+      <c r="I5" t="str">
+        <v>0.00</v>
       </c>
       <c r="J5" t="str">
         <v>0.00</v>
@@ -679,7 +697,7 @@
         <v>0.00</v>
       </c>
       <c r="M5" t="str">
-        <v>26.80</v>
+        <v>51.60</v>
       </c>
       <c r="N5" t="str">
         <v>0.00</v>
@@ -691,33 +709,39 @@
         <v/>
       </c>
       <c r="Q5" t="str">
-        <v>2018-01-29 15:31:35</v>
+        <v>2018-02-05 18:23:45</v>
       </c>
       <c r="R5" t="str">
-        <v>陈燕</v>
+        <v>徐子莹</v>
       </c>
       <c r="S5" t="str">
         <v>黄伟波</v>
       </c>
       <c r="T5" t="str">
-        <v/>
+        <v>否</v>
+      </c>
+      <c r="U5" t="str">
+        <v>无</v>
+      </c>
+      <c r="V5" t="str">
+        <v>无</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="str">
-        <v>韦晓明</v>
+        <v>王升平</v>
       </c>
       <c r="B6" t="str">
-        <v>613828</v>
+        <v>622647</v>
       </c>
       <c r="C6" t="str">
-        <v>10.00</v>
+        <v>380.00</v>
       </c>
       <c r="D6" t="str">
-        <v>10.00</v>
+        <v>380.00</v>
       </c>
       <c r="E6" t="str">
-        <v>0.00</v>
+        <v>304.00</v>
       </c>
       <c r="F6" t="str">
         <v>0.00</v>
@@ -725,11 +749,11 @@
       <c r="G6" t="str">
         <v>0.00</v>
       </c>
-      <c r="H6" t="str">
-        <v>0.00</v>
-      </c>
-      <c r="I6">
-        <v>0</v>
+      <c r="H6">
+        <v>304</v>
+      </c>
+      <c r="I6" t="str">
+        <v>0.00</v>
       </c>
       <c r="J6" t="str">
         <v>0.00</v>
@@ -741,216 +765,42 @@
         <v>0.00</v>
       </c>
       <c r="M6" t="str">
-        <v>0.00</v>
+        <v>76.00</v>
       </c>
       <c r="N6" t="str">
         <v>0.00</v>
       </c>
       <c r="O6" t="str">
-        <v>10.00</v>
+        <v>0.00</v>
       </c>
       <c r="P6" t="str">
         <v/>
       </c>
       <c r="Q6" t="str">
-        <v>2018-01-29 15:43:10</v>
+        <v>2018-02-05 18:24:07</v>
       </c>
       <c r="R6" t="str">
-        <v>陈燕</v>
+        <v>徐子莹</v>
       </c>
       <c r="S6" t="str">
         <v>黄伟波</v>
       </c>
       <c r="T6" t="str">
-        <v/>
+        <v>否</v>
+      </c>
+      <c r="U6" t="str">
+        <v>无</v>
+      </c>
+      <c r="V6" t="str">
+        <v>无</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" t="str">
-        <v>王汝彬</v>
-      </c>
-      <c r="B7" t="str">
-        <v>613606</v>
-      </c>
-      <c r="C7" t="str">
-        <v>318.00</v>
-      </c>
-      <c r="D7" t="str">
-        <v>318.00</v>
-      </c>
-      <c r="E7" t="str">
-        <v>238.40</v>
-      </c>
-      <c r="F7" t="str">
-        <v>0.00</v>
-      </c>
-      <c r="G7" t="str">
-        <v>0.00</v>
-      </c>
       <c r="H7" t="str">
-        <v>238.40</v>
-      </c>
-      <c r="I7">
-        <v>0</v>
-      </c>
-      <c r="J7" t="str">
-        <v>0.00</v>
-      </c>
-      <c r="K7" t="str">
-        <v>0.00</v>
-      </c>
-      <c r="L7" t="str">
-        <v>0.00</v>
-      </c>
-      <c r="M7" t="str">
-        <v>79.60</v>
-      </c>
-      <c r="N7" t="str">
-        <v>0.00</v>
-      </c>
-      <c r="O7" t="str">
-        <v>0.00</v>
-      </c>
-      <c r="P7" t="str">
-        <v/>
-      </c>
-      <c r="Q7" t="str">
-        <v>2018-01-29 16:31:43</v>
-      </c>
-      <c r="R7" t="str">
-        <v>陈燕</v>
-      </c>
-      <c r="S7" t="str">
-        <v>黄伟波</v>
-      </c>
-      <c r="T7" t="str">
-        <v/>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="str">
-        <v>何素梅</v>
-      </c>
-      <c r="B8" t="str">
-        <v>613940</v>
-      </c>
-      <c r="C8" t="str">
-        <v>35.00</v>
-      </c>
-      <c r="D8" t="str">
-        <v>35.00</v>
-      </c>
-      <c r="E8" t="str">
-        <v>23.20</v>
-      </c>
-      <c r="F8" t="str">
-        <v>0.00</v>
-      </c>
-      <c r="G8" t="str">
-        <v>0.00</v>
-      </c>
-      <c r="H8" t="str">
-        <v>23.20</v>
-      </c>
-      <c r="I8">
-        <v>0</v>
-      </c>
-      <c r="J8" t="str">
-        <v>0.00</v>
-      </c>
-      <c r="K8" t="str">
-        <v>0.00</v>
-      </c>
-      <c r="L8" t="str">
-        <v>0.00</v>
-      </c>
-      <c r="M8" t="str">
-        <v>11.80</v>
-      </c>
-      <c r="N8" t="str">
-        <v>0.00</v>
-      </c>
-      <c r="O8" t="str">
-        <v>0.00</v>
-      </c>
-      <c r="P8" t="str">
-        <v/>
-      </c>
-      <c r="Q8" t="str">
-        <v>2018-01-29 17:20:29</v>
-      </c>
-      <c r="R8" t="str">
-        <v>陈燕</v>
-      </c>
-      <c r="S8" t="str">
-        <v>黄伟波</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="str">
-        <v>陈维祺</v>
-      </c>
-      <c r="B9" t="str">
-        <v>613610</v>
-      </c>
-      <c r="C9" t="str">
-        <v>338.00</v>
-      </c>
-      <c r="D9" t="str">
-        <v>338.00</v>
-      </c>
-      <c r="E9" t="str">
-        <v>270.40</v>
-      </c>
-      <c r="F9" t="str">
-        <v>0.00</v>
-      </c>
-      <c r="G9" t="str">
-        <v>0.00</v>
-      </c>
-      <c r="H9" t="str">
-        <v>0.00</v>
-      </c>
-      <c r="I9">
-        <v>270.4</v>
-      </c>
-      <c r="J9" t="str">
-        <v>0.00</v>
-      </c>
-      <c r="K9" t="str">
-        <v>0.00</v>
-      </c>
-      <c r="L9" t="str">
-        <v>0.00</v>
-      </c>
-      <c r="M9" t="str">
-        <v>67.60</v>
-      </c>
-      <c r="N9" t="str">
-        <v>0.00</v>
-      </c>
-      <c r="O9" t="str">
-        <v>0.00</v>
-      </c>
-      <c r="P9" t="str">
-        <v/>
-      </c>
-      <c r="Q9" t="str">
-        <v>2018-01-29 17:47:32</v>
-      </c>
-      <c r="R9" t="str">
-        <v>陈燕</v>
-      </c>
-      <c r="S9" t="str">
-        <v>黄伟波</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="H10" t="str">
-        <v>合计: 796.8元</v>
-      </c>
-      <c r="I10" t="str">
-        <v>合计: 377.6元</v>
+        <v>合计: 2521.8元</v>
+      </c>
+      <c r="I7" t="str">
+        <v>合计: 0元</v>
       </c>
     </row>
   </sheetData>
